--- a/benchmarking/data/TEB/path_smoothness.xlsx
+++ b/benchmarking/data/TEB/path_smoothness.xlsx
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>38.20135717997454</v>
+        <v>46.74532093462981</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18.30446884599026</v>
+        <v>21.06862219393591</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.0011393312825</v>
+        <v>17.47493121345582</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.35196601481456</v>
+        <v>15.99340798923385</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.24290890473843</v>
+        <v>17.46898840813801</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.11067277959344</v>
+        <v>17.8285957727186</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.12089540500286</v>
+        <v>18.01151182745734</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>105.2331967707271</v>
+        <v>18.25663341208264</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.0573860492309</v>
+        <v>18.89053522389766</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36.31558303347927</v>
+        <v>21.96114242032871</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>31.79395743148337</v>
+        <v>21.36996893958784</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
